--- a/IndividualWorkSheet.xlsx
+++ b/IndividualWorkSheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\황석영\Desktop\3학년1학기\소공\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steve\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5088361C-5232-4CD6-BD1B-B468F1A9733A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D53958C-8497-4786-ADDD-0F0E9E7ADADD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{FCAA3FF0-AA75-C645-967F-E4C4CFF74051}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{FCAA3FF0-AA75-C645-967F-E4C4CFF74051}"/>
   </bookViews>
   <sheets>
     <sheet name="신승민" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
   <si>
     <t>할일</t>
   </si>
@@ -84,12 +84,38 @@
   </si>
   <si>
     <t>프로젝트 세부 명세서 작성</t>
+  </si>
+  <si>
+    <t>디비 미완성으로 인해 알고리즘 수정 못함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>web server구현 및 알고리즘 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">web server구현 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부트스트랩 프레임워크를 이용한 웹페이지 UI 구축</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. lookupsmartphone.jsp(휴대폰 전제 보기 웹페이지 구현) -&gt; 모빌라이저를 사용해 웹페이지 생성
+2. lookupplan.jsp 구현 -&gt;모빌라이저를 사용해 웹페이지 생성
+3. recomsmartphon.jsp -&gt; 휴대폰 추천 을 받았을때 띄워주는 창 구현   </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. detailphone.jsp 구현-&gt; 휴대폰 상세 보기 기능( 이기능에 휴대폰의 스펙이나 성능을 설명해주는 동영상이 있으면 괜찮을것 같아서 youtube링크를 첨부하는쪽으로 추진) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
@@ -141,7 +167,29 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="26">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -239,7 +287,12 @@
       <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{D6A9A9CA-8D25-4C37-B3D9-3C06DADC13B8}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -255,12 +308,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D46C7571-941F-AD4B-94C8-83666430A1CC}" name="Table13" displayName="Table13" ref="A1:F15" totalsRowShown="0">
   <autoFilter ref="A1:F15" xr:uid="{4E226D53-8B78-D74B-AEA9-0667C9B5EEFE}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{7B0DB81B-F367-C943-8F36-2937E2F1F42C}" name="할일" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{2B7D4B8D-CE65-B244-A444-786AB4D654DE}" name="내용" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{F9298CBC-86C8-9A41-AACC-1AE8C0A66611}" name="할당일" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{E740C854-D7A5-1549-B300-A67F30554219}" name="완성일" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{EA738C33-5E64-6945-B470-E3391E8D2A3F}" name="결과" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{C3FAB94C-D6FC-9E47-8459-1AB7E77BA67F}" name="문제점" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{7B0DB81B-F367-C943-8F36-2937E2F1F42C}" name="할일" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{2B7D4B8D-CE65-B244-A444-786AB4D654DE}" name="내용" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{F9298CBC-86C8-9A41-AACC-1AE8C0A66611}" name="할당일" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{E740C854-D7A5-1549-B300-A67F30554219}" name="완성일" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{EA738C33-5E64-6945-B470-E3391E8D2A3F}" name="결과" dataDxfId="21"/>
+    <tableColumn id="6" xr3:uid="{C3FAB94C-D6FC-9E47-8459-1AB7E77BA67F}" name="문제점" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -270,12 +323,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{72FE4043-6CB5-2048-BE5C-411DA9E676BA}" name="Table1" displayName="Table1" ref="A1:F15" totalsRowShown="0">
   <autoFilter ref="A1:F15" xr:uid="{03FBFC27-16C8-DD42-928B-ABA1D393C713}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{05FCB8A4-A8BA-4B41-9F2B-B0506496E623}" name="할일" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{60A0A5BA-661B-834B-8197-1C7A6D8DDDCD}" name="내용" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{6ECDDE03-3D31-CF45-9CCB-373713B27D9F}" name="할당일" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{495FFBF1-9FCF-C045-B6CA-30DA46033F57}" name="완성일" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{84E860E1-A248-8246-AD59-8EC3E5E7E7E7}" name="결과" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{FD0E0825-8B19-7E41-AAAF-A4E947367A39}" name="문제점" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{05FCB8A4-A8BA-4B41-9F2B-B0506496E623}" name="할일" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{60A0A5BA-661B-834B-8197-1C7A6D8DDDCD}" name="내용" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{6ECDDE03-3D31-CF45-9CCB-373713B27D9F}" name="할당일" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{495FFBF1-9FCF-C045-B6CA-30DA46033F57}" name="완성일" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{84E860E1-A248-8246-AD59-8EC3E5E7E7E7}" name="결과" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{FD0E0825-8B19-7E41-AAAF-A4E947367A39}" name="문제점" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -285,12 +338,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CC292F7A-8169-F544-87D7-5E751E302B2D}" name="Table14" displayName="Table14" ref="A1:F15" totalsRowShown="0">
   <autoFilter ref="A1:F15" xr:uid="{CB7A7201-8BFC-D74F-B5EC-48471E641635}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{3B1EA132-9987-0F4E-8B99-EFA12DA08DC4}" name="할일" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{15B26D7A-C19A-D843-980A-002FDC97EDAC}" name="내용" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{45B34DAB-B154-A248-9621-229186118E7E}" name="할당일" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{BAB3B138-7773-EB4C-A303-2882DBAEDF4B}" name="완성일" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{C27CCA5C-5577-AF45-BE47-6EB01E5D7DBE}" name="결과" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{CEE9A07C-65DC-2D4E-A564-48CF60809DDF}" name="문제점" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{3B1EA132-9987-0F4E-8B99-EFA12DA08DC4}" name="할일" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{15B26D7A-C19A-D843-980A-002FDC97EDAC}" name="내용" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{45B34DAB-B154-A248-9621-229186118E7E}" name="할당일" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{BAB3B138-7773-EB4C-A303-2882DBAEDF4B}" name="완성일" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{C27CCA5C-5577-AF45-BE47-6EB01E5D7DBE}" name="결과" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{CEE9A07C-65DC-2D4E-A564-48CF60809DDF}" name="문제점" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -300,12 +353,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A834ADBB-1A19-264E-8768-BD31A0F05DCF}" name="Table15" displayName="Table15" ref="A1:F15" totalsRowShown="0">
   <autoFilter ref="A1:F15" xr:uid="{A931BC6D-B1E1-2649-8D23-2C7B73EDCFEC}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{57D18F50-627E-E24B-B7E9-20003FA96EC0}" name="할일" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{FF8A36FF-2633-2E46-AE12-285D37CA3C19}" name="내용" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{BA5C562F-0A54-764D-AFF2-40A49350A097}" name="할당일" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{B2046308-6837-614B-AB16-DBF7481F7A94}" name="완성일" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{FA2DD1A4-BEB6-6D44-97B2-BF29DC61500A}" name="결과" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{C978756B-5187-1148-AC57-6B5399BA191F}" name="문제점" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{57D18F50-627E-E24B-B7E9-20003FA96EC0}" name="할일" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{FF8A36FF-2633-2E46-AE12-285D37CA3C19}" name="내용" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{BA5C562F-0A54-764D-AFF2-40A49350A097}" name="할당일" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{B2046308-6837-614B-AB16-DBF7481F7A94}" name="완성일" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{FA2DD1A4-BEB6-6D44-97B2-BF29DC61500A}" name="결과" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{C978756B-5187-1148-AC57-6B5399BA191F}" name="문제점" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -610,11 +663,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C67034FD-BFF4-A549-800D-AA3E9E18B838}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="17.54296875" customWidth="1"/>
+    <col min="5" max="5" width="31.36328125" customWidth="1"/>
+    <col min="6" max="6" width="24.6328125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
@@ -636,9 +694,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="122.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" ht="134.4" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>9</v>
@@ -647,17 +705,31 @@
         <v>43594</v>
       </c>
       <c r="D2" s="2">
-        <v>43599</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="1"/>
+        <v>43598</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="96" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="2">
+        <v>43601</v>
+      </c>
+      <c r="D3" s="2">
+        <v>43606</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
@@ -774,14 +846,14 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21.84375" customWidth="1"/>
+    <col min="1" max="1" width="21.81640625" customWidth="1"/>
     <col min="2" max="2" width="40" customWidth="1"/>
-    <col min="3" max="3" width="15.15234375" customWidth="1"/>
-    <col min="4" max="4" width="14.3046875" customWidth="1"/>
-    <col min="5" max="5" width="26.3046875" customWidth="1"/>
-    <col min="6" max="6" width="17.84375" customWidth="1"/>
+    <col min="3" max="3" width="15.1796875" customWidth="1"/>
+    <col min="4" max="4" width="14.26953125" customWidth="1"/>
+    <col min="5" max="5" width="26.26953125" customWidth="1"/>
+    <col min="6" max="6" width="17.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
@@ -804,7 +876,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" ht="43.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -820,7 +892,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
@@ -828,7 +900,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="47" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" ht="46.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
@@ -836,7 +908,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="47" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" ht="46.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
@@ -844,7 +916,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="49" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" ht="49.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -938,13 +1010,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5A7F25C-F87D-0347-A3F0-84405B967072}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" ht="17.55" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -964,7 +1036,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" ht="57.6" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -982,7 +1054,7 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" ht="57.6" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -998,7 +1070,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" ht="17.55" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
@@ -1006,7 +1078,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" ht="17.55" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
@@ -1014,7 +1086,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" ht="17.55" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -1022,7 +1094,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" ht="17.55" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -1030,7 +1102,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" ht="17.55" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -1038,7 +1110,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" ht="17.55" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -1046,7 +1118,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" ht="17.55" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -1054,7 +1126,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" ht="17.55" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -1062,7 +1134,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" ht="17.55" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1070,7 +1142,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" ht="17.55" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1108,10 +1180,10 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" activeCellId="1" sqref="E2:F2 A3:F3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">

--- a/IndividualWorkSheet.xlsx
+++ b/IndividualWorkSheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steve\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steve\OneDrive\바탕 화면\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D53958C-8497-4786-ADDD-0F0E9E7ADADD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{2D53958C-8497-4786-ADDD-0F0E9E7ADADD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{78796089-BE66-4FFB-8611-234082BF7A28}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{FCAA3FF0-AA75-C645-967F-E4C4CFF74051}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FCAA3FF0-AA75-C645-967F-E4C4CFF74051}"/>
   </bookViews>
   <sheets>
     <sheet name="신승민" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
   <si>
     <t>할일</t>
   </si>
@@ -84,10 +84,6 @@
   </si>
   <si>
     <t>프로젝트 세부 명세서 작성</t>
-  </si>
-  <si>
-    <t>디비 미완성으로 인해 알고리즘 수정 못함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>web server구현 및 알고리즘 수정</t>
@@ -108,7 +104,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">1. detailphone.jsp 구현-&gt; 휴대폰 상세 보기 기능( 이기능에 휴대폰의 스펙이나 성능을 설명해주는 동영상이 있으면 괜찮을것 같아서 youtube링크를 첨부하는쪽으로 추진) </t>
+    <t>디비 미완성으로 인해 알고리즘 수정 x // 웹 UI제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹페이지 구축</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. detailphone.jsp 구현-&gt; 휴대폰 상세 보기 기능( 이기능에 휴대폰의 스펙이나 성능을 설명해주는 동영상이 있으면 괜찮을것 같아서 youtube링크를 첨부하는쪽으로 추진)  
+2. recomplan.jsp 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>web server 구현
+알고리즘 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 구현했던 jsp파일에 디비에서 데이터를 가져와  웹에 나타내는 코드 구현
+2. 휴대폰 추천 알고리즘 수정(Model.java, recomphone.java 구현)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기존코드는 프로그램 시작시 txt파일에서 데이터를 전부다 불러오고 알고리즘을 수행하는 형식이었고 예상변경계획은 디비에서 해당하는 데이터만 가져오는식으로 하려고 했으나 각 휴대폰 기종에 가중치를 주는 형식이기 때문에 부적절하다고 생각되서 요즘제 추천을 받을때 디비에서 휴대폰을 전부 가져오고 우선순위를 계산하는 형식으로 코드 변경</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -169,6 +188,102 @@
   </cellStyles>
   <dxfs count="26">
     <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -190,107 +305,11 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{D6A9A9CA-8D25-4C37-B3D9-3C06DADC13B8}">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="25"/>
+      <tableStyleElement type="headerRow" dxfId="24"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -308,12 +327,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D46C7571-941F-AD4B-94C8-83666430A1CC}" name="Table13" displayName="Table13" ref="A1:F15" totalsRowShown="0">
   <autoFilter ref="A1:F15" xr:uid="{4E226D53-8B78-D74B-AEA9-0667C9B5EEFE}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{7B0DB81B-F367-C943-8F36-2937E2F1F42C}" name="할일" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{2B7D4B8D-CE65-B244-A444-786AB4D654DE}" name="내용" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{F9298CBC-86C8-9A41-AACC-1AE8C0A66611}" name="할당일" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{E740C854-D7A5-1549-B300-A67F30554219}" name="완성일" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{EA738C33-5E64-6945-B470-E3391E8D2A3F}" name="결과" dataDxfId="21"/>
-    <tableColumn id="6" xr3:uid="{C3FAB94C-D6FC-9E47-8459-1AB7E77BA67F}" name="문제점" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{7B0DB81B-F367-C943-8F36-2937E2F1F42C}" name="할일" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{2B7D4B8D-CE65-B244-A444-786AB4D654DE}" name="내용" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{F9298CBC-86C8-9A41-AACC-1AE8C0A66611}" name="할당일" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{E740C854-D7A5-1549-B300-A67F30554219}" name="완성일" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{EA738C33-5E64-6945-B470-E3391E8D2A3F}" name="결과" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{C3FAB94C-D6FC-9E47-8459-1AB7E77BA67F}" name="문제점" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -323,12 +342,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{72FE4043-6CB5-2048-BE5C-411DA9E676BA}" name="Table1" displayName="Table1" ref="A1:F15" totalsRowShown="0">
   <autoFilter ref="A1:F15" xr:uid="{03FBFC27-16C8-DD42-928B-ABA1D393C713}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{05FCB8A4-A8BA-4B41-9F2B-B0506496E623}" name="할일" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{60A0A5BA-661B-834B-8197-1C7A6D8DDDCD}" name="내용" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{6ECDDE03-3D31-CF45-9CCB-373713B27D9F}" name="할당일" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{495FFBF1-9FCF-C045-B6CA-30DA46033F57}" name="완성일" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{84E860E1-A248-8246-AD59-8EC3E5E7E7E7}" name="결과" dataDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{FD0E0825-8B19-7E41-AAAF-A4E947367A39}" name="문제점" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{05FCB8A4-A8BA-4B41-9F2B-B0506496E623}" name="할일" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{60A0A5BA-661B-834B-8197-1C7A6D8DDDCD}" name="내용" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{6ECDDE03-3D31-CF45-9CCB-373713B27D9F}" name="할당일" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{495FFBF1-9FCF-C045-B6CA-30DA46033F57}" name="완성일" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{84E860E1-A248-8246-AD59-8EC3E5E7E7E7}" name="결과" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{FD0E0825-8B19-7E41-AAAF-A4E947367A39}" name="문제점" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -338,12 +357,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CC292F7A-8169-F544-87D7-5E751E302B2D}" name="Table14" displayName="Table14" ref="A1:F15" totalsRowShown="0">
   <autoFilter ref="A1:F15" xr:uid="{CB7A7201-8BFC-D74F-B5EC-48471E641635}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{3B1EA132-9987-0F4E-8B99-EFA12DA08DC4}" name="할일" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{15B26D7A-C19A-D843-980A-002FDC97EDAC}" name="내용" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{45B34DAB-B154-A248-9621-229186118E7E}" name="할당일" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{BAB3B138-7773-EB4C-A303-2882DBAEDF4B}" name="완성일" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{C27CCA5C-5577-AF45-BE47-6EB01E5D7DBE}" name="결과" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{CEE9A07C-65DC-2D4E-A564-48CF60809DDF}" name="문제점" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{3B1EA132-9987-0F4E-8B99-EFA12DA08DC4}" name="할일" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{15B26D7A-C19A-D843-980A-002FDC97EDAC}" name="내용" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{45B34DAB-B154-A248-9621-229186118E7E}" name="할당일" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{BAB3B138-7773-EB4C-A303-2882DBAEDF4B}" name="완성일" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{C27CCA5C-5577-AF45-BE47-6EB01E5D7DBE}" name="결과" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{CEE9A07C-65DC-2D4E-A564-48CF60809DDF}" name="문제점" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -353,12 +372,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A834ADBB-1A19-264E-8768-BD31A0F05DCF}" name="Table15" displayName="Table15" ref="A1:F15" totalsRowShown="0">
   <autoFilter ref="A1:F15" xr:uid="{A931BC6D-B1E1-2649-8D23-2C7B73EDCFEC}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{57D18F50-627E-E24B-B7E9-20003FA96EC0}" name="할일" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{FF8A36FF-2633-2E46-AE12-285D37CA3C19}" name="내용" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{BA5C562F-0A54-764D-AFF2-40A49350A097}" name="할당일" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{B2046308-6837-614B-AB16-DBF7481F7A94}" name="완성일" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{FA2DD1A4-BEB6-6D44-97B2-BF29DC61500A}" name="결과" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{C978756B-5187-1148-AC57-6B5399BA191F}" name="문제점" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{57D18F50-627E-E24B-B7E9-20003FA96EC0}" name="할일" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{FF8A36FF-2633-2E46-AE12-285D37CA3C19}" name="내용" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{BA5C562F-0A54-764D-AFF2-40A49350A097}" name="할당일" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{B2046308-6837-614B-AB16-DBF7481F7A94}" name="완성일" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{FA2DD1A4-BEB6-6D44-97B2-BF29DC61500A}" name="결과" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{C978756B-5187-1148-AC57-6B5399BA191F}" name="문제점" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -664,11 +683,12 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
   <cols>
+    <col min="1" max="1" width="17.36328125" customWidth="1"/>
     <col min="2" max="2" width="17.54296875" customWidth="1"/>
     <col min="5" max="5" width="31.36328125" customWidth="1"/>
     <col min="6" max="6" width="24.6328125" customWidth="1"/>
@@ -696,7 +716,7 @@
     </row>
     <row r="2" spans="1:6" ht="134.4" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>9</v>
@@ -708,18 +728,18 @@
         <v>43598</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="96" x14ac:dyDescent="0.45">
+    </row>
+    <row r="3" spans="1:6" ht="115.2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="C3" s="2">
         <v>43601</v>
@@ -728,17 +748,29 @@
         <v>43606</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" ht="249.6" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="C4" s="2">
+        <v>43606</v>
+      </c>
+      <c r="D4" s="2">
+        <v>43610</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
@@ -1016,7 +1048,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="17.55" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1070,7 +1102,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="17.55" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
@@ -1078,7 +1110,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="17.55" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
@@ -1086,7 +1118,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="17.55" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -1094,7 +1126,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="17.55" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -1102,7 +1134,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" ht="17.55" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -1110,7 +1142,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" ht="17.55" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -1118,7 +1150,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" ht="17.55" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -1126,7 +1158,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" ht="17.55" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -1134,7 +1166,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" ht="17.55" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1142,7 +1174,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" ht="17.55" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>

--- a/IndividualWorkSheet.xlsx
+++ b/IndividualWorkSheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steve\OneDrive\바탕 화면\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\황석영\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{2D53958C-8497-4786-ADDD-0F0E9E7ADADD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{78796089-BE66-4FFB-8611-234082BF7A28}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB377067-2110-4474-94B2-8302D1FA0679}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FCAA3FF0-AA75-C645-967F-E4C4CFF74051}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{FCAA3FF0-AA75-C645-967F-E4C4CFF74051}"/>
   </bookViews>
   <sheets>
     <sheet name="신승민" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
   <si>
     <t>할일</t>
   </si>
@@ -128,6 +128,38 @@
   </si>
   <si>
     <t>기존코드는 프로그램 시작시 txt파일에서 데이터를 전부다 불러오고 알고리즘을 수행하는 형식이었고 예상변경계획은 디비에서 해당하는 데이터만 가져오는식으로 하려고 했으나 각 휴대폰 기종에 가중치를 주는 형식이기 때문에 부적절하다고 생각되서 요즘제 추천을 받을때 디비에서 휴대폰을 전부 가져오고 우선순위를 계산하는 형식으로 코드 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추천 항목 입력 값 유효검사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB미완성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스마트폰, 요금제 추천 form 검사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조회, 추천 화면에서 -&gt; 상세보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조회, 추천화면에서 상세보기로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조회, 추천 화면에서 상세보기로 연결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>javaScript언어로 form 잘못입력시 경고창 띄우고 재입력 요구 recomsmartphone.jsp 문제 없을시 servlet으로 이동 후 가중치 알고리즘 적용 추천항목 3개 가져옴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -162,7 +194,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -170,17 +202,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -682,16 +735,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C67034FD-BFF4-A549-800D-AA3E9E18B838}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.36328125" customWidth="1"/>
-    <col min="2" max="2" width="17.54296875" customWidth="1"/>
-    <col min="5" max="5" width="31.36328125" customWidth="1"/>
-    <col min="6" max="6" width="24.6328125" customWidth="1"/>
+    <col min="1" max="1" width="17.3828125" customWidth="1"/>
+    <col min="2" max="2" width="17.53515625" customWidth="1"/>
+    <col min="5" max="5" width="31.3828125" customWidth="1"/>
+    <col min="6" max="6" width="24.61328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
@@ -714,7 +767,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="134.4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" ht="122.5" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -734,7 +787,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="115.2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" ht="105" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -752,7 +805,7 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="249.6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" ht="227.5" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
@@ -872,20 +925,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70C14FFC-A98E-D14C-9FD6-16CE2D228C25}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21.81640625" customWidth="1"/>
+    <col min="1" max="1" width="21.84375" customWidth="1"/>
     <col min="2" max="2" width="40" customWidth="1"/>
-    <col min="3" max="3" width="15.1796875" customWidth="1"/>
-    <col min="4" max="4" width="14.26953125" customWidth="1"/>
-    <col min="5" max="5" width="26.26953125" customWidth="1"/>
-    <col min="6" max="6" width="17.81640625" customWidth="1"/>
+    <col min="3" max="3" width="15.15234375" customWidth="1"/>
+    <col min="4" max="4" width="14.23046875" customWidth="1"/>
+    <col min="5" max="5" width="26.23046875" customWidth="1"/>
+    <col min="6" max="6" width="17.84375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
@@ -908,7 +961,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="43.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,25 +975,49 @@
         <v>43599</v>
       </c>
       <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="35" x14ac:dyDescent="0.45">
+      <c r="A3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="2">
+        <v>43600</v>
+      </c>
+      <c r="D3" s="2">
+        <v>43600</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="46.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" ht="46.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" ht="105" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="2">
+        <v>43604</v>
+      </c>
+      <c r="D4" s="2">
+        <v>43609</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="47" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
@@ -948,7 +1025,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="49.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" ht="49" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -1027,6 +1104,9 @@
       <c r="D15" s="2"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
+    </row>
+    <row r="19" spans="2:2" ht="18" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B19" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1046,7 +1126,7 @@
       <selection activeCell="A2" sqref="A2:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
@@ -1068,7 +1148,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="57.6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" ht="70" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -1086,7 +1166,7 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="57.6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -1215,7 +1295,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">

--- a/IndividualWorkSheet.xlsx
+++ b/IndividualWorkSheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\황석영\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/15448c88720df7ac/바탕 화면/새 폴더/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB377067-2110-4474-94B2-8302D1FA0679}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3D85724-840E-46BA-A4C1-7165217F9ADA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{FCAA3FF0-AA75-C645-967F-E4C4CFF74051}"/>
+    <workbookView xWindow="1824" yWindow="960" windowWidth="17280" windowHeight="8964" xr2:uid="{FCAA3FF0-AA75-C645-967F-E4C4CFF74051}"/>
   </bookViews>
   <sheets>
     <sheet name="신승민" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="37">
   <si>
     <t>할일</t>
   </si>
@@ -160,6 +160,18 @@
   </si>
   <si>
     <t>javaScript언어로 form 잘못입력시 경고창 띄우고 재입력 요구 recomsmartphone.jsp 문제 없을시 servlet으로 이동 후 가중치 알고리즘 적용 추천항목 3개 가져옴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요금제 추천 알고리즘 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요금제 추천 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력받은 값에 따라 요금제를 추천하는 알고리즘 구현 ( Plan.java , recomPlan.java 구현)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -735,16 +747,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C67034FD-BFF4-A549-800D-AA3E9E18B838}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.3828125" customWidth="1"/>
-    <col min="2" max="2" width="17.53515625" customWidth="1"/>
-    <col min="5" max="5" width="31.3828125" customWidth="1"/>
-    <col min="6" max="6" width="24.61328125" customWidth="1"/>
+    <col min="1" max="1" width="17.36328125" customWidth="1"/>
+    <col min="2" max="2" width="17.54296875" customWidth="1"/>
+    <col min="5" max="5" width="31.36328125" customWidth="1"/>
+    <col min="6" max="6" width="24.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
@@ -767,7 +779,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="122.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" ht="134.4" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -787,7 +799,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="105" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" ht="115.2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -805,7 +817,7 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="227.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" ht="249.6" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
@@ -825,12 +837,22 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="1"/>
+    <row r="5" spans="1:6" ht="57.6" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="2">
+        <v>43611</v>
+      </c>
+      <c r="D5" s="2">
+        <v>43612</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
@@ -927,18 +949,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70C14FFC-A98E-D14C-9FD6-16CE2D228C25}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21.84375" customWidth="1"/>
+    <col min="1" max="1" width="21.81640625" customWidth="1"/>
     <col min="2" max="2" width="40" customWidth="1"/>
-    <col min="3" max="3" width="15.15234375" customWidth="1"/>
-    <col min="4" max="4" width="14.23046875" customWidth="1"/>
-    <col min="5" max="5" width="26.23046875" customWidth="1"/>
-    <col min="6" max="6" width="17.84375" customWidth="1"/>
+    <col min="3" max="3" width="15.1796875" customWidth="1"/>
+    <col min="4" max="4" width="14.26953125" customWidth="1"/>
+    <col min="5" max="5" width="26.26953125" customWidth="1"/>
+    <col min="6" max="6" width="17.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
@@ -961,7 +983,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" ht="43.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -979,7 +1001,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="35" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" ht="38.4" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
         <v>30</v>
       </c>
@@ -997,7 +1019,7 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="105" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" ht="115.2" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
@@ -1017,7 +1039,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="47" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" ht="46.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
@@ -1025,7 +1047,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="49" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" ht="49.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -1105,7 +1127,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="19" spans="2:2" ht="18" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B19" s="3"/>
     </row>
   </sheetData>
@@ -1126,7 +1148,7 @@
       <selection activeCell="A2" sqref="A2:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
@@ -1148,7 +1170,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="70" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" ht="57.6" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -1166,7 +1188,7 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="52.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" ht="57.6" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -1295,7 +1317,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">

--- a/IndividualWorkSheet.xlsx
+++ b/IndividualWorkSheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/15448c88720df7ac/바탕 화면/새 폴더/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steve\OneDrive\바탕 화면\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3D85724-840E-46BA-A4C1-7165217F9ADA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{C3D85724-840E-46BA-A4C1-7165217F9ADA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{D589EE9D-109A-417B-8906-7EDFAA642168}"/>
   <bookViews>
-    <workbookView xWindow="1824" yWindow="960" windowWidth="17280" windowHeight="8964" xr2:uid="{FCAA3FF0-AA75-C645-967F-E4C4CFF74051}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FCAA3FF0-AA75-C645-967F-E4C4CFF74051}"/>
   </bookViews>
   <sheets>
     <sheet name="신승민" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
   <si>
     <t>할일</t>
   </si>
@@ -172,6 +172,18 @@
   </si>
   <si>
     <t>입력받은 값에 따라 요금제를 추천하는 알고리즘 구현 ( Plan.java , recomPlan.java 구현)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요금제 추천 테스트 코드 작성및 테스팅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요금제추천 테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recomPhoneTest.java 구현</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -747,8 +759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C67034FD-BFF4-A549-800D-AA3E9E18B838}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
@@ -855,12 +867,22 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="1"/>
+    <row r="6" spans="1:6" ht="38.4" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="2">
+        <v>43613</v>
+      </c>
+      <c r="D6" s="2">
+        <v>43616</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">

--- a/IndividualWorkSheet.xlsx
+++ b/IndividualWorkSheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steve\OneDrive\바탕 화면\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/parkyunhwa/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{C3D85724-840E-46BA-A4C1-7165217F9ADA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{D589EE9D-109A-417B-8906-7EDFAA642168}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED6576E-5EB3-9D47-8E46-CDA621F3E08D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FCAA3FF0-AA75-C645-967F-E4C4CFF74051}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="12580" activeTab="3" xr2:uid="{FCAA3FF0-AA75-C645-967F-E4C4CFF74051}"/>
   </bookViews>
   <sheets>
     <sheet name="신승민" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="44">
   <si>
     <t>할일</t>
   </si>
@@ -58,9 +58,6 @@
   </si>
   <si>
     <t>DB구축</t>
-  </si>
-  <si>
-    <t>DB 구축</t>
   </si>
   <si>
     <t>부트스트랩 프레임워크를 이용한 웹페이지 구축 및 휴대폰 추천 알고리즘 수정</t>
@@ -184,6 +181,26 @@
   </si>
   <si>
     <t>recomPhoneTest.java 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해쉬함수 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 입력 시 해쉬함수를 통해 데이터베이스에 저장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버구축</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB 서버 구축 및 eclipse 연동, DB 함수 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버 내 아파치톰캣 설치, 아파치 설치, mysql 설치 및 연동</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -194,7 +211,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -759,19 +776,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C67034FD-BFF4-A549-800D-AA3E9E18B838}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.140625" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="17.36328125" customWidth="1"/>
-    <col min="2" max="2" width="17.54296875" customWidth="1"/>
-    <col min="5" max="5" width="31.36328125" customWidth="1"/>
-    <col min="6" max="6" width="24.6328125" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="31.42578125" customWidth="1"/>
+    <col min="6" max="6" width="24.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -791,12 +808,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="134.4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" ht="133">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2">
         <v>43594</v>
@@ -805,18 +822,18 @@
         <v>43598</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="115.2" x14ac:dyDescent="0.45">
+    </row>
+    <row r="3" spans="1:6" ht="114">
       <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="C3" s="2">
         <v>43601</v>
@@ -825,16 +842,16 @@
         <v>43606</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" ht="228">
+      <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" ht="249.6" x14ac:dyDescent="0.45">
-      <c r="A4" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="2">
         <v>43606</v>
@@ -843,18 +860,18 @@
         <v>43610</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="57.6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="5" spans="1:6" ht="57">
       <c r="A5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="C5" s="2">
         <v>43611</v>
@@ -863,16 +880,16 @@
         <v>43612</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" ht="38">
+      <c r="A6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" ht="38.4" x14ac:dyDescent="0.45">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="C6" s="2">
         <v>43613</v>
@@ -881,11 +898,11 @@
         <v>43616</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -893,7 +910,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -901,7 +918,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -909,7 +926,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -917,7 +934,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -925,7 +942,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -933,7 +950,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -941,7 +958,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -949,7 +966,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -975,17 +992,17 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.140625" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="21.81640625" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" customWidth="1"/>
     <col min="2" max="2" width="40" customWidth="1"/>
-    <col min="3" max="3" width="15.1796875" customWidth="1"/>
-    <col min="4" max="4" width="14.26953125" customWidth="1"/>
-    <col min="5" max="5" width="26.26953125" customWidth="1"/>
-    <col min="6" max="6" width="17.81640625" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1005,12 +1022,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="43.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" ht="44" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2">
         <v>43594</v>
@@ -1020,15 +1037,15 @@
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="38.4" x14ac:dyDescent="0.45">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="38">
       <c r="A3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="C3" s="2">
         <v>43600</v>
@@ -1037,16 +1054,16 @@
         <v>43600</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="115.2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" ht="95">
       <c r="A4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="2">
         <v>43604</v>
@@ -1055,13 +1072,13 @@
         <v>43609</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="46.95" customHeight="1" x14ac:dyDescent="0.45">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="47" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
@@ -1069,7 +1086,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="49.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" ht="49" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -1077,7 +1094,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -1085,7 +1102,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -1093,7 +1110,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -1101,7 +1118,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -1109,7 +1126,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -1117,7 +1134,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1125,7 +1142,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1133,7 +1150,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1141,7 +1158,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -1149,7 +1166,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="19" spans="2:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:2" ht="19" thickBot="1">
       <c r="B19" s="3"/>
     </row>
   </sheetData>
@@ -1170,9 +1187,9 @@
       <selection activeCell="A2" sqref="A2:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.140625" defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1192,12 +1209,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="57.6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" ht="57">
       <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="C2" s="2">
         <v>43585</v>
@@ -1206,16 +1223,16 @@
         <v>43594</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" ht="57">
+      <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" ht="57.6" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>43594</v>
@@ -1226,7 +1243,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
@@ -1234,7 +1251,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
@@ -1242,7 +1259,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -1250,7 +1267,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -1258,7 +1275,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -1266,7 +1283,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -1274,7 +1291,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -1282,7 +1299,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -1290,7 +1307,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1298,7 +1315,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1306,7 +1323,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1314,7 +1331,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -1335,13 +1352,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C04FA645-8FC6-F147-A0B8-D80F8ED71AE2}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.140625" defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1361,39 +1378,55 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" ht="76">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2">
         <v>43594</v>
       </c>
       <c r="D2" s="2">
-        <v>43599</v>
+        <v>43609</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+    <row r="3" spans="1:6" ht="95">
+      <c r="A3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="2">
+        <v>43606</v>
+      </c>
+      <c r="D3" s="2">
+        <v>43620</v>
+      </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+    <row r="4" spans="1:6" ht="95">
+      <c r="A4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="2">
+        <v>43627</v>
+      </c>
+      <c r="D4" s="2">
+        <v>43636</v>
+      </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
@@ -1401,7 +1434,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -1409,7 +1442,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -1417,7 +1450,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -1425,7 +1458,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -1433,7 +1466,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -1441,7 +1474,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -1449,7 +1482,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1457,7 +1490,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1465,7 +1498,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1473,7 +1506,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>

--- a/IndividualWorkSheet.xlsx
+++ b/IndividualWorkSheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/parkyunhwa/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steve\OneDrive\바탕 화면\새 폴더 (3)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED6576E-5EB3-9D47-8E46-CDA621F3E08D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DED81FC7-B554-4B34-9A82-913ED52CC63E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="12580" activeTab="3" xr2:uid="{FCAA3FF0-AA75-C645-967F-E4C4CFF74051}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FCAA3FF0-AA75-C645-967F-E4C4CFF74051}"/>
   </bookViews>
   <sheets>
     <sheet name="신승민" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="60">
   <si>
     <t>할일</t>
   </si>
@@ -201,6 +201,70 @@
   </si>
   <si>
     <t>서버 내 아파치톰캣 설치, 아파치 설치, mysql 설치 및 연동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴대폰 추천 테스트 코드 작성 및 테스팅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴대폰추천 테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recomPlanTest.java 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code coverage 30%로 상승</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소나큐브 연동 에러 문제 해결 및 웹에 필요한 DB코드 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TA님과 연락을 주고받으며 소나 클라우드 에러 해결, 황석영 학우가 웹을 개발하면 내부에서 호출하게 되는 SQL문 개발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">JSP파일에 들어가는 DB관련 코드 구현 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소나클라우드 에러 해결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>db코드 분리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디비 코드가 Dbtest에 묶여있어서 Class가 거대해지고 복잡함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">각 Table별로 control하는 코드를 분리시킴 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일부 코드 분리 완료(100% 아님)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코드 Refactoring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코드스멜, 버그, Vulnerability 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>황석영 학생과 같이Vulnerability, Bug, Code스멜 제거작업 (Pair programming)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일부 버그, 에러 수정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -211,7 +275,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -776,19 +840,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C67034FD-BFF4-A549-800D-AA3E9E18B838}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.140625" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" customWidth="1"/>
-    <col min="5" max="5" width="31.42578125" customWidth="1"/>
-    <col min="6" max="6" width="24.5703125" customWidth="1"/>
+    <col min="1" max="1" width="19.36328125" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="5" max="5" width="31.453125" customWidth="1"/>
+    <col min="6" max="6" width="24.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -808,7 +872,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="133">
+    <row r="2" spans="1:6" ht="134.4" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -828,7 +892,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="114">
+    <row r="3" spans="1:6" ht="115.2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -846,7 +910,7 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="228">
+    <row r="4" spans="1:6" ht="249.6" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
@@ -866,7 +930,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="57">
+    <row r="5" spans="1:6" ht="57.6" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>33</v>
       </c>
@@ -884,7 +948,7 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="38">
+    <row r="6" spans="1:6" ht="38.4" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>36</v>
       </c>
@@ -898,43 +962,91 @@
         <v>43616</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" ht="38.4" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="2">
+        <v>43617</v>
+      </c>
+      <c r="D7" s="2">
+        <v>43618</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="F7" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="96" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="2">
+        <v>43619</v>
+      </c>
+      <c r="D8" s="2">
+        <v>43623</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="57.6" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="2">
+        <v>43624</v>
+      </c>
+      <c r="D9" s="2">
+        <v>43626</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="76.8" x14ac:dyDescent="0.45">
+      <c r="A10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="2">
+        <v>43634</v>
+      </c>
+      <c r="D10" s="2">
+        <v>42541</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -942,7 +1054,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -950,7 +1062,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -958,7 +1070,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -966,7 +1078,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -992,17 +1104,17 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.140625" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.81640625" customWidth="1"/>
     <col min="2" max="2" width="40" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1"/>
-    <col min="5" max="5" width="26.28515625" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.1796875" customWidth="1"/>
+    <col min="4" max="4" width="14.26953125" customWidth="1"/>
+    <col min="5" max="5" width="26.26953125" customWidth="1"/>
+    <col min="6" max="6" width="17.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1022,7 +1134,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="44" customHeight="1">
+    <row r="2" spans="1:6" ht="43.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1040,7 +1152,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="38">
+    <row r="3" spans="1:6" ht="38.4" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
         <v>29</v>
       </c>
@@ -1058,7 +1170,7 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="95">
+    <row r="4" spans="1:6" ht="115.2" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
@@ -1078,7 +1190,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="47" customHeight="1">
+    <row r="5" spans="1:6" ht="46.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
@@ -1086,7 +1198,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="49" customHeight="1">
+    <row r="6" spans="1:6" ht="49.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -1094,7 +1206,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -1102,7 +1214,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -1110,7 +1222,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -1118,7 +1230,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -1126,7 +1238,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -1134,7 +1246,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1142,7 +1254,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1150,7 +1262,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1158,7 +1270,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -1166,7 +1278,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="19" spans="2:2" ht="19" thickBot="1">
+    <row r="19" spans="2:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B19" s="3"/>
     </row>
   </sheetData>
@@ -1187,9 +1299,9 @@
       <selection activeCell="A2" sqref="A2:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.140625" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1209,7 +1321,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="57">
+    <row r="2" spans="1:6" ht="57.6" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1227,7 +1339,7 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="57">
+    <row r="3" spans="1:6" ht="57.6" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -1243,7 +1355,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
@@ -1251,7 +1363,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
@@ -1259,7 +1371,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -1267,7 +1379,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -1275,7 +1387,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -1283,7 +1395,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -1291,7 +1403,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -1299,7 +1411,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -1307,7 +1419,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1315,7 +1427,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1323,7 +1435,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1331,7 +1443,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -1352,13 +1464,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C04FA645-8FC6-F147-A0B8-D80F8ED71AE2}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.140625" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1378,7 +1490,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="76">
+    <row r="2" spans="1:6" ht="76.8" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1394,7 +1506,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="95">
+    <row r="3" spans="1:6" ht="96" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>39</v>
       </c>
@@ -1410,7 +1522,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="95">
+    <row r="4" spans="1:6" ht="96" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>41</v>
       </c>
@@ -1426,7 +1538,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
@@ -1434,7 +1546,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -1442,7 +1554,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -1450,7 +1562,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -1458,7 +1570,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -1466,7 +1578,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -1474,7 +1586,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -1482,7 +1594,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1490,7 +1602,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1498,7 +1610,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1506,7 +1618,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>

--- a/IndividualWorkSheet.xlsx
+++ b/IndividualWorkSheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steve\OneDrive\바탕 화면\새 폴더 (3)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\황석영\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DED81FC7-B554-4B34-9A82-913ED52CC63E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{663EC0D4-F378-451D-ACF6-C3A82FFA8496}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FCAA3FF0-AA75-C645-967F-E4C4CFF74051}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{FCAA3FF0-AA75-C645-967F-E4C4CFF74051}"/>
   </bookViews>
   <sheets>
     <sheet name="신승민" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="81">
   <si>
     <t>할일</t>
   </si>
@@ -265,6 +265,90 @@
   </si>
   <si>
     <t>일부 버그, 에러 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버구축</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버 호스팅을 위해 얻은 서버에 톰캣,디비 등 설치하고 설정변경 및 호스팅 시도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실패</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀원2명이 갑자기 잠수타고 제 할일을 하지 않아 실패했습니다. 데이터 모으는 작업과 디비 구축작업(구축만하고 나머지 쿼리문에 대해서는 제가 작성했습니다) 빼고는 두명에서 모든 프로젝트 다 진행했습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3Tier 아키텍쳐로 변환 시도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 2Tier 에서 3Tier로 변환 시도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디비관련 쿼리문을 직접 호출하는식으로 구현되어있는데 이를 String 으로 날려서 다른 프로그램에서 처리하는식으로 3티어를 구성하려 했는데 너무 많은 부분 수정이 필요하고 인력부족으로 인해 해결하지 못했습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입, 로그인 입력 유효성 검사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스마트폰 등록, 요금제 등록 입력 유효성 검사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스마트폰, 요금제 DB관리모드 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>랭킹보기 UI 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입, 로그인에 필요한 입력에 모든 유효성 검사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스마트폰 등록, 요금제 등록 입력에 모든 유효성 검사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추천 수 가 많지 않아서 없어보임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력 형식이 너무 다양해서 검사 하기 힘듬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 계정으로 로그인 했을때 DB관리모드로 들어갈수 있도록 함. DB항목들을 테이블로 보고 삭제 할 수 있고 새로운 데이터를 추가할 수 있도록 함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴대폰 추천을 많이 받은 상위 3개 항목을 막대그래프, 원형그래프로 나타냄.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부트스트랩 dashboard템플릿 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조회기능이랑 UI가 비슷해서 헷갈려서 구분못할수도있음</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -840,16 +924,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C67034FD-BFF4-A549-800D-AA3E9E18B838}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.15234375" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19.36328125" customWidth="1"/>
+    <col min="1" max="1" width="19.3828125" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="5" max="5" width="31.453125" customWidth="1"/>
-    <col min="6" max="6" width="24.54296875" customWidth="1"/>
+    <col min="5" max="5" width="31.4609375" customWidth="1"/>
+    <col min="6" max="6" width="24.53515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
@@ -872,7 +956,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="134.4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" ht="122.5" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -892,7 +976,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="115.2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" ht="105" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -910,7 +994,7 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="249.6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" ht="227.5" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
@@ -930,7 +1014,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="57.6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>33</v>
       </c>
@@ -948,7 +1032,7 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="38.4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" ht="35" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>36</v>
       </c>
@@ -966,7 +1050,7 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="38.4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" ht="35" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>44</v>
       </c>
@@ -986,7 +1070,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="96" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" ht="87.5" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>48</v>
       </c>
@@ -1006,7 +1090,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="57.6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>52</v>
       </c>
@@ -1026,7 +1110,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="76.8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" ht="70" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>56</v>
       </c>
@@ -1046,21 +1130,45 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+    <row r="11" spans="1:6" ht="140" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="2">
+        <v>43634</v>
+      </c>
+      <c r="D11" s="2">
+        <v>43635</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="140" x14ac:dyDescent="0.45">
+      <c r="A12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="2">
+        <v>43635</v>
+      </c>
+      <c r="D12" s="2">
+        <v>43636</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
@@ -1100,18 +1208,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70C14FFC-A98E-D14C-9FD6-16CE2D228C25}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.15234375" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21.81640625" customWidth="1"/>
+    <col min="1" max="1" width="21.84375" customWidth="1"/>
     <col min="2" max="2" width="40" customWidth="1"/>
-    <col min="3" max="3" width="15.1796875" customWidth="1"/>
-    <col min="4" max="4" width="14.26953125" customWidth="1"/>
-    <col min="5" max="5" width="26.26953125" customWidth="1"/>
-    <col min="6" max="6" width="17.81640625" customWidth="1"/>
+    <col min="3" max="3" width="15.15234375" customWidth="1"/>
+    <col min="4" max="4" width="14.23046875" customWidth="1"/>
+    <col min="5" max="5" width="26.23046875" customWidth="1"/>
+    <col min="6" max="6" width="17.84375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
@@ -1134,7 +1242,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="43.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1152,7 +1260,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="38.4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" ht="35" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
         <v>29</v>
       </c>
@@ -1170,7 +1278,7 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="115.2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" ht="105" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
@@ -1190,37 +1298,85 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="46.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" ht="49.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+    <row r="5" spans="1:6" ht="47" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="2">
+        <v>43617</v>
+      </c>
+      <c r="D5" s="2">
+        <v>43636</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="49" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="2">
+        <v>43617</v>
+      </c>
+      <c r="D6" s="2">
+        <v>43636</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="70" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="2">
+        <v>43617</v>
+      </c>
+      <c r="D7" s="2">
+        <v>43636</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="35" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="2">
+        <v>43617</v>
+      </c>
+      <c r="D8" s="2">
+        <v>43636</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
@@ -1278,7 +1434,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="19" spans="2:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:2" ht="18" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B19" s="3"/>
     </row>
   </sheetData>
@@ -1296,10 +1452,10 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E3"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.15234375" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
@@ -1321,7 +1477,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="57.6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1339,7 +1495,7 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="57.6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -1465,10 +1621,10 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A4" sqref="A4:G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.15234375" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
@@ -1490,7 +1646,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="76.8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" ht="87.5" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1506,7 +1662,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="96" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" ht="87.5" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>39</v>
       </c>
@@ -1522,7 +1678,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="96" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" ht="87.5" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>41</v>
       </c>
